--- a/학점은행/학점은행계획.xlsx
+++ b/학점은행/학점은행계획.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjwhd\git\TIL\학점은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F327E1F2-ADAB-4D30-986E-9F26E23EEC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3240880-C7BD-447C-B389-977262837D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="1845" windowWidth="19740" windowHeight="13755" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
+    <workbookView xWindow="-22740" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{0B5A47C8-42F4-4ED1-BB40-2F999C7C333D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>학점은행제 정리</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,66 @@
   </si>
   <si>
     <t>2월, 8월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/02/12 현재 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네관2급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간강의(교양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간강의(일반)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독학사(1단계 교양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간강의(전공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22년 상반기 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 필요한 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12~20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(예상취득 학점 12~20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상 필요한 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(최소 6점~20점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22년도 하반기에 끝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,6 +591,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,77 +648,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B238A4D-7E0F-4A96-B566-1167ADC07DB2}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C46"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1102,24 +1162,24 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1131,12 +1191,12 @@
       <c r="E33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="20">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1146,10 +1206,10 @@
       <c r="E34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1161,91 +1221,91 @@
       <c r="E35" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="21">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>8</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="7"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="10">
         <v>16</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="4"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="10">
         <v>14</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="10">
         <v>14</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="12">
         <f>SUM(D34,D36,D37:D39)</f>
         <v>55</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="8">
+      <c r="F40" s="23">
         <f>SUM(F33:F36)</f>
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="20">
+      <c r="D41" s="12">
         <v>33</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="3">
         <f>SUM(D40:D41)</f>
         <v>88</v>
@@ -1276,130 +1336,274 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="31">
         <v>44514</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="31">
         <v>44516</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="16">
+      <c r="A46" s="30"/>
+      <c r="B46" s="8">
         <v>44491</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="28">
         <v>44542</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="28">
         <v>44551</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="16">
+      <c r="A48" s="27"/>
+      <c r="B48" s="8">
         <v>44519</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="25" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="27"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67">
+        <f>SUM(B62:B66)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <f>140-65-28</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
